--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_end.xlsx
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]   Hold on, what does "to the ends of the earth" mean there?
+    <t xml:space="preserve">[name="Croissant"]   Hold on, what does 'to the ends of the earth' mean there?
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gambino"]   "Kidnap Bison, split Penguin Logistics and MDL, rub out Emperor," that was your great plan.
+    <t xml:space="preserve">[name="Gambino"]   'Kidnap Bison, split Penguin Logistics and MDL, rub out Emperor,' that was your great plan.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_end.xlsx
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mafioso"]   You…
+    <t xml:space="preserve">[name="Mafioso"]   You...
 </t>
   </si>
   <si>
